--- a/Run 3/Forecast_Results_RNN_Demand(DSDT).xlsx
+++ b/Run 3/Forecast_Results_RNN_Demand(DSDT).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpersaricioglu/Library/Mobile Documents/com~apple~CloudDocs/PhD Thesis/1 Tez Önerisi/1 Çalışmalar/Time series runs 26.3.24/New DNN forecast input (9.4.24)/Run 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E166B831-720F-6D4C-9CFE-AC09F39C44F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4C4009-70F5-594E-97F4-9C0FA6C41C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,10 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +289,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -329,14 +334,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,12 +645,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -882,7 +891,7 @@
       </c>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>42370</v>
       </c>
       <c r="B2">
@@ -1118,7 +1127,7 @@
       </c>
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>42401</v>
       </c>
       <c r="B3">
@@ -1354,7 +1363,7 @@
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>42430</v>
       </c>
       <c r="B4">
@@ -1590,7 +1599,7 @@
       </c>
     </row>
     <row r="5" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>42461</v>
       </c>
       <c r="B5">
@@ -1826,7 +1835,7 @@
       </c>
     </row>
     <row r="6" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>42491</v>
       </c>
       <c r="B6">
@@ -2062,7 +2071,7 @@
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>42522</v>
       </c>
       <c r="B7">
@@ -2298,7 +2307,7 @@
       </c>
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>42552</v>
       </c>
       <c r="B8">
@@ -2534,7 +2543,7 @@
       </c>
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>42583</v>
       </c>
       <c r="B9">
@@ -2770,7 +2779,7 @@
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>42614</v>
       </c>
       <c r="B10">
@@ -3006,7 +3015,7 @@
       </c>
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>42644</v>
       </c>
       <c r="B11">
@@ -3242,7 +3251,7 @@
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>42675</v>
       </c>
       <c r="B12">
@@ -3478,7 +3487,7 @@
       </c>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>42705</v>
       </c>
       <c r="B13">
@@ -3714,7 +3723,7 @@
       </c>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>42736</v>
       </c>
       <c r="B14">
@@ -3950,7 +3959,7 @@
       </c>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>42767</v>
       </c>
       <c r="B15">
@@ -4186,7 +4195,7 @@
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>42795</v>
       </c>
       <c r="B16">
@@ -4422,7 +4431,7 @@
       </c>
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>42826</v>
       </c>
       <c r="B17">
@@ -4658,7 +4667,7 @@
       </c>
     </row>
     <row r="18" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>42856</v>
       </c>
       <c r="B18">
@@ -4894,7 +4903,7 @@
       </c>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>42887</v>
       </c>
       <c r="B19">
@@ -5130,7 +5139,7 @@
       </c>
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>42917</v>
       </c>
       <c r="B20">
@@ -5366,7 +5375,7 @@
       </c>
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>42948</v>
       </c>
       <c r="B21">
@@ -5602,7 +5611,7 @@
       </c>
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>42979</v>
       </c>
       <c r="B22">
@@ -5838,7 +5847,7 @@
       </c>
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>43009</v>
       </c>
       <c r="B23">
@@ -6074,7 +6083,7 @@
       </c>
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>43040</v>
       </c>
       <c r="B24">
@@ -6310,7 +6319,7 @@
       </c>
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>43070</v>
       </c>
       <c r="B25">
@@ -6546,7 +6555,7 @@
       </c>
     </row>
     <row r="26" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>43101</v>
       </c>
       <c r="B26">
@@ -6782,7 +6791,7 @@
       </c>
     </row>
     <row r="27" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>43132</v>
       </c>
       <c r="B27">
@@ -7018,7 +7027,7 @@
       </c>
     </row>
     <row r="28" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>43160</v>
       </c>
       <c r="B28">
@@ -7254,7 +7263,7 @@
       </c>
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>43191</v>
       </c>
       <c r="B29">
@@ -7490,7 +7499,7 @@
       </c>
     </row>
     <row r="30" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>43221</v>
       </c>
       <c r="B30">
@@ -7726,7 +7735,7 @@
       </c>
     </row>
     <row r="31" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>43252</v>
       </c>
       <c r="B31">
@@ -7962,7 +7971,7 @@
       </c>
     </row>
     <row r="32" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>43282</v>
       </c>
       <c r="B32">
@@ -8198,7 +8207,7 @@
       </c>
     </row>
     <row r="33" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>43313</v>
       </c>
       <c r="B33">
@@ -8434,7 +8443,7 @@
       </c>
     </row>
     <row r="34" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>43344</v>
       </c>
       <c r="B34">
@@ -8670,7 +8679,7 @@
       </c>
     </row>
     <row r="35" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>43374</v>
       </c>
       <c r="B35">
@@ -8906,7 +8915,7 @@
       </c>
     </row>
     <row r="36" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>43405</v>
       </c>
       <c r="B36">
@@ -9142,7 +9151,7 @@
       </c>
     </row>
     <row r="37" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>43435</v>
       </c>
       <c r="B37">
@@ -9378,7 +9387,7 @@
       </c>
     </row>
     <row r="38" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>43466</v>
       </c>
       <c r="B38">
@@ -9614,7 +9623,7 @@
       </c>
     </row>
     <row r="39" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>43497</v>
       </c>
       <c r="B39">
@@ -9850,7 +9859,7 @@
       </c>
     </row>
     <row r="40" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>43525</v>
       </c>
       <c r="B40">
@@ -10086,7 +10095,7 @@
       </c>
     </row>
     <row r="41" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>43556</v>
       </c>
       <c r="B41">
@@ -10322,7 +10331,7 @@
       </c>
     </row>
     <row r="42" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>43586</v>
       </c>
       <c r="B42">
@@ -10558,7 +10567,7 @@
       </c>
     </row>
     <row r="43" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>43617</v>
       </c>
       <c r="B43">
@@ -10794,7 +10803,7 @@
       </c>
     </row>
     <row r="44" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>43647</v>
       </c>
       <c r="B44">
@@ -11030,7 +11039,7 @@
       </c>
     </row>
     <row r="45" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>43678</v>
       </c>
       <c r="B45">
@@ -11266,7 +11275,7 @@
       </c>
     </row>
     <row r="46" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>43709</v>
       </c>
       <c r="B46">
@@ -11502,7 +11511,7 @@
       </c>
     </row>
     <row r="47" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>43739</v>
       </c>
       <c r="B47">
@@ -11738,7 +11747,7 @@
       </c>
     </row>
     <row r="48" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>43770</v>
       </c>
       <c r="B48">
@@ -11974,7 +11983,7 @@
       </c>
     </row>
     <row r="49" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>43800</v>
       </c>
       <c r="B49">
@@ -12210,7 +12219,7 @@
       </c>
     </row>
     <row r="50" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>43831</v>
       </c>
       <c r="B50">
@@ -12446,7 +12455,7 @@
       </c>
     </row>
     <row r="51" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>43862</v>
       </c>
       <c r="B51">
@@ -12682,7 +12691,7 @@
       </c>
     </row>
     <row r="52" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>43891</v>
       </c>
       <c r="B52">
@@ -12918,7 +12927,7 @@
       </c>
     </row>
     <row r="53" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>43922</v>
       </c>
       <c r="B53">
@@ -13154,7 +13163,7 @@
       </c>
     </row>
     <row r="54" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>43952</v>
       </c>
       <c r="B54">
@@ -13390,7 +13399,7 @@
       </c>
     </row>
     <row r="55" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>43983</v>
       </c>
       <c r="B55">
@@ -13626,7 +13635,7 @@
       </c>
     </row>
     <row r="56" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>44013</v>
       </c>
       <c r="B56">
@@ -13862,7 +13871,7 @@
       </c>
     </row>
     <row r="57" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>44044</v>
       </c>
       <c r="B57">
@@ -14098,7 +14107,7 @@
       </c>
     </row>
     <row r="58" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>44075</v>
       </c>
       <c r="B58">
@@ -14334,7 +14343,7 @@
       </c>
     </row>
     <row r="59" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>44105</v>
       </c>
       <c r="B59">
@@ -14570,7 +14579,7 @@
       </c>
     </row>
     <row r="60" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>44136</v>
       </c>
       <c r="B60">
@@ -14806,7 +14815,7 @@
       </c>
     </row>
     <row r="61" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>44166</v>
       </c>
       <c r="B61">
@@ -15042,7 +15051,7 @@
       </c>
     </row>
     <row r="62" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>44197</v>
       </c>
       <c r="B62">
@@ -15278,7 +15287,7 @@
       </c>
     </row>
     <row r="63" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>44228</v>
       </c>
       <c r="B63">
@@ -15514,7 +15523,7 @@
       </c>
     </row>
     <row r="64" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>44256</v>
       </c>
       <c r="B64">
@@ -15750,7 +15759,7 @@
       </c>
     </row>
     <row r="65" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>44287</v>
       </c>
       <c r="B65">
@@ -15986,7 +15995,7 @@
       </c>
     </row>
     <row r="66" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>44317</v>
       </c>
       <c r="B66">
@@ -16222,7 +16231,7 @@
       </c>
     </row>
     <row r="67" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>44348</v>
       </c>
       <c r="B67">
@@ -16458,7 +16467,7 @@
       </c>
     </row>
     <row r="68" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>44378</v>
       </c>
       <c r="B68">
@@ -16694,7 +16703,7 @@
       </c>
     </row>
     <row r="69" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>44409</v>
       </c>
       <c r="B69">
@@ -16930,7 +16939,7 @@
       </c>
     </row>
     <row r="70" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>44440</v>
       </c>
       <c r="B70">
@@ -17166,7 +17175,7 @@
       </c>
     </row>
     <row r="71" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>44470</v>
       </c>
       <c r="B71">
@@ -17402,7 +17411,7 @@
       </c>
     </row>
     <row r="72" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>44501</v>
       </c>
       <c r="B72">
@@ -17638,7 +17647,7 @@
       </c>
     </row>
     <row r="73" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>44531</v>
       </c>
       <c r="B73">
@@ -17874,7 +17883,7 @@
       </c>
     </row>
     <row r="74" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>44562</v>
       </c>
       <c r="B74">
@@ -18110,7 +18119,7 @@
       </c>
     </row>
     <row r="75" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>44593</v>
       </c>
       <c r="B75">
@@ -18346,7 +18355,7 @@
       </c>
     </row>
     <row r="76" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>44621</v>
       </c>
       <c r="B76">
@@ -18582,7 +18591,7 @@
       </c>
     </row>
     <row r="77" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>44652</v>
       </c>
       <c r="B77">
@@ -18818,7 +18827,7 @@
       </c>
     </row>
     <row r="78" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>44682</v>
       </c>
       <c r="B78">
@@ -19054,7 +19063,7 @@
       </c>
     </row>
     <row r="79" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>44713</v>
       </c>
       <c r="B79">
@@ -19290,7 +19299,7 @@
       </c>
     </row>
     <row r="80" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>44743</v>
       </c>
       <c r="B80">
@@ -19526,7 +19535,7 @@
       </c>
     </row>
     <row r="81" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>44774</v>
       </c>
       <c r="B81">
@@ -19762,7 +19771,7 @@
       </c>
     </row>
     <row r="82" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>44805</v>
       </c>
       <c r="B82">
@@ -19998,7 +20007,7 @@
       </c>
     </row>
     <row r="83" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>44835</v>
       </c>
       <c r="B83">
@@ -20234,7 +20243,7 @@
       </c>
     </row>
     <row r="84" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>44866</v>
       </c>
       <c r="B84">
@@ -20470,7 +20479,7 @@
       </c>
     </row>
     <row r="85" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>44896</v>
       </c>
       <c r="B85">
@@ -20706,7 +20715,7 @@
       </c>
     </row>
     <row r="86" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>44927</v>
       </c>
       <c r="B86">
@@ -20942,7 +20951,7 @@
       </c>
     </row>
     <row r="87" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>44958</v>
       </c>
       <c r="B87">
@@ -21178,7 +21187,7 @@
       </c>
     </row>
     <row r="88" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>44986</v>
       </c>
       <c r="B88">
@@ -21414,7 +21423,7 @@
       </c>
     </row>
     <row r="89" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>45017</v>
       </c>
       <c r="B89">
@@ -21650,7 +21659,7 @@
       </c>
     </row>
     <row r="90" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>45047</v>
       </c>
       <c r="B90">
@@ -21886,7 +21895,7 @@
       </c>
     </row>
     <row r="91" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>45078</v>
       </c>
       <c r="B91">
@@ -22122,7 +22131,7 @@
       </c>
     </row>
     <row r="92" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>45108</v>
       </c>
       <c r="B92">
@@ -22358,7 +22367,7 @@
       </c>
     </row>
     <row r="93" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>45139</v>
       </c>
       <c r="B93">
@@ -22594,7 +22603,7 @@
       </c>
     </row>
     <row r="94" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>45170</v>
       </c>
       <c r="B94">
@@ -22830,7 +22839,7 @@
       </c>
     </row>
     <row r="95" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <v>45200</v>
       </c>
       <c r="B95">
@@ -23066,7 +23075,7 @@
       </c>
     </row>
     <row r="96" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>45231</v>
       </c>
       <c r="B96">
@@ -23302,7 +23311,7 @@
       </c>
     </row>
     <row r="97" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>45261</v>
       </c>
       <c r="B97">
